--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuryaPrakashK\final_challenge-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\final_challenge-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1E732-5011-4138-BAD1-E2B06F49F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2DD9C8-EE73-4EDB-AAE1-72F3567D44F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2995E880-5AB4-414C-884C-21628C03C2D6}"/>
+    <workbookView xWindow="4668" yWindow="2220" windowWidth="17280" windowHeight="9420" xr2:uid="{2995E880-5AB4-414C-884C-21628C03C2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,18 +34,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Sprenkels &amp; Verschuren</t>
-  </si>
-  <si>
-    <t>https://sprenkels.nl/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>SÜDWESTBANK - BAWAG AG Niederlassung Deutschland</t>
+  </si>
+  <si>
+    <t>https://www.suedwestbank.de/</t>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Banking Corporation Düsseldorf Branch</t>
+  </si>
+  <si>
+    <t>https://www.smbcgroup.com/emea</t>
+  </si>
+  <si>
+    <t>SV Informatik GmbH</t>
+  </si>
+  <si>
+    <t>https://www.sv-informatik.de/</t>
+  </si>
+  <si>
+    <t>Sveland Djurförsäkringar, ömsesidigt</t>
+  </si>
+  <si>
+    <t>https://sveland.se/</t>
+  </si>
+  <si>
+    <t>Svenska Fribrevsbolaget Försäkring AB</t>
+  </si>
+  <si>
+    <t>https://www.svenskafribrevsbolaget.se/</t>
+  </si>
+  <si>
+    <t>Svenska kyrkans pensionskassa (new name: Svenska kyrkans tjänstepensionsförening)</t>
+  </si>
+  <si>
+    <t>https://www.fi.se/sv/publicerat/sanktioner/finansiella-foretag/2024/svenska-kyrkans-tjanstepensionsforening-far-en-anmarkning-och-fem-miljoner-kronor-i-sanktionsavgift/</t>
+  </si>
+  <si>
+    <t>Swiss Life (Luxembourg) S.A.</t>
+  </si>
+  <si>
+    <t>https://www.swisslife-global.com/global-solutions.html</t>
+  </si>
+  <si>
+    <t>Swiss Life AG</t>
+  </si>
+  <si>
+    <t>https://www.swisslife.com/en/home.html</t>
+  </si>
+  <si>
+    <t>Swiss Life Lebensversicherung SE</t>
+  </si>
+  <si>
+    <t>https://www.swisslife.de/ueber-swiss-life/medienportal/news/2024/24-09-04-swiss-life-lebensversicherung-se.html</t>
+  </si>
+  <si>
+    <t>Swiss Life Select Schweiz AG</t>
+  </si>
+  <si>
+    <t>https://www.dnb.com/business-directory/company-profiles.swiss_life_select_schweiz_ag.ea2672fb0f4a5b23a9bc67fc0c8c1d02.html</t>
+  </si>
+  <si>
+    <t>Swisslos Interkantonale Landeslotterie</t>
+  </si>
+  <si>
+    <t>https://www.swisslos.ch/en/informations/about-swisslos/portrait/intercantonal-lottery.html</t>
+  </si>
+  <si>
+    <t>Swissquote Bank SA</t>
+  </si>
+  <si>
+    <t>https://www.swissquote.com/en-row/private</t>
+  </si>
+  <si>
+    <t>Syntrus Achmea Real Estate &amp; Finance B.V.</t>
+  </si>
+  <si>
+    <t>https://news.achmea.nl/achmea-splits-mortgage-and-real-estate-activities-of-syntrus-achmea--real-estate--finance/</t>
+  </si>
+  <si>
+    <t>Tabery &amp; Wauthier</t>
+  </si>
+  <si>
+    <t>https://www.tabery.eu/en</t>
+  </si>
+  <si>
+    <t>Takaful Emerat</t>
+  </si>
+  <si>
+    <t>https://takafulemarat.com/</t>
+  </si>
+  <si>
+    <t>Tamkeen Insurance</t>
+  </si>
+  <si>
+    <t>https://www.tamkeen-ins.ps/en</t>
+  </si>
+  <si>
+    <t>Taurus Wealth AG</t>
+  </si>
+  <si>
+    <t>https://tauruswealth.com/</t>
+  </si>
+  <si>
+    <t>TBAUCTIONS Netherlands B.V.</t>
+  </si>
+  <si>
+    <t>https://tbauctions.com/</t>
+  </si>
+  <si>
+    <t>TBF Global Asset Management GmbH</t>
+  </si>
+  <si>
+    <t>https://www.tbfsam.com/en/startseite/</t>
+  </si>
+  <si>
+    <t>TBF GmbH</t>
   </si>
 </sst>
 </file>
@@ -63,12 +172,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,17 +193,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,23 +551,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0819D4-CB20-470D-AFC9-418707252536}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -454,14 +575,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
